--- a/data/trans_dic/P55$amigo-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P55$amigo-Dificultad-trans_dic.xlsx
@@ -722,10 +722,10 @@
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
-        <v>0.01099284223267437</v>
+        <v>0.01109194502498212</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01108456509708712</v>
+        <v>0.0110556144517784</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.008214674748754173</v>
+        <v>0.008260783806622389</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01189962962234119</v>
+        <v>0.01168109923445937</v>
       </c>
     </row>
     <row r="6">
@@ -749,35 +749,35 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.09098765860513169</v>
+        <v>0.1096606827945525</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1125441598649186</v>
+        <v>0.1167372098024999</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1426832741611515</v>
+        <v>0.118185318590583</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04196696243535218</v>
+        <v>0.04793361779954357</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.0934951812842604</v>
+        <v>0.09183462764516973</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07731635594873826</v>
+        <v>0.07315379135192264</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03148362675405651</v>
+        <v>0.02765543258792155</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04383838800147321</v>
+        <v>0.03756692367691105</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06816781167295297</v>
+        <v>0.07679276699967875</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06941086124359952</v>
+        <v>0.0646970990283367</v>
       </c>
     </row>
     <row r="7">
@@ -841,7 +841,7 @@
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.02613728799377799</v>
+        <v>0.021223671919163</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.008721220717653631</v>
+        <v>0.008310229387842497</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.006785808155626414</v>
+        <v>0.006659596047008584</v>
       </c>
       <c r="L8" s="5" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02083141725973849</v>
+        <v>0.0193210752941498</v>
       </c>
     </row>
     <row r="9">
@@ -876,36 +876,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07786898785198725</v>
+        <v>0.07878446913457358</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.1395918894536897</v>
+        <v>0.1243461730330236</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1183392923376478</v>
+        <v>0.1048501757793058</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07040077785950936</v>
+        <v>0.07237530496779813</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0967415713288922</v>
+        <v>0.07063630134128915</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05085460452044859</v>
+        <v>0.05046079165100173</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07061582121310633</v>
+        <v>0.06710870033508995</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05394160100797373</v>
+        <v>0.05624429481187801</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06169782258545348</v>
+        <v>0.05849731569851153</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06404737573821312</v>
+        <v>0.06190145830807655</v>
       </c>
     </row>
     <row r="10">
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0391807747140672</v>
+        <v>0.03918077471406721</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02268903835846099</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06651992524970765</v>
+        <v>0.06651992524970764</v>
       </c>
     </row>
     <row r="11">
@@ -979,7 +979,7 @@
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.04181475505721183</v>
+        <v>0.04194629974359423</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
       </c>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.03700244263407865</v>
+        <v>0.03684001101169832</v>
       </c>
     </row>
     <row r="12">
@@ -1000,32 +1000,32 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1987646532784111</v>
+        <v>0.1845443885624856</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2831963632637706</v>
+        <v>0.2652158893678588</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.1370319535775063</v>
+        <v>0.1221907774001367</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1041861860898739</v>
+        <v>0.116694731153748</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.136332065251162</v>
+        <v>0.1321697438869325</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1041903161155731</v>
+        <v>0.1041856860690859</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1222371410603577</v>
+        <v>0.130884060240299</v>
       </c>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.1084195370870975</v>
+        <v>0.1111399883710389</v>
       </c>
     </row>
     <row r="13">
@@ -1061,7 +1061,7 @@
         <v>0.1012550453272951</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.08807903273676554</v>
+        <v>0.08807903273676553</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.0436845266171888</v>
@@ -1087,7 +1087,7 @@
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.009759943327499623</v>
+        <v>0.009650670937472558</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03254720147225379</v>
+        <v>0.04161012013782555</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02975309412525121</v>
+        <v>0.03373919084977198</v>
       </c>
     </row>
     <row r="15">
@@ -1125,31 +1125,31 @@
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.1106017941963071</v>
+        <v>0.1145401362374766</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3801372856026169</v>
+        <v>0.3411322943221682</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1716683742295645</v>
+        <v>0.1872678160761299</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3127072910212597</v>
+        <v>0.3020193591865851</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1875011568075036</v>
+        <v>0.1971540060511643</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2276443859328922</v>
+        <v>0.2282802938701531</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1045775393502326</v>
+        <v>0.1100341875736893</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1852347023501303</v>
+        <v>0.1810349648288185</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1199972981616951</v>
+        <v>0.1254682576608834</v>
       </c>
     </row>
     <row r="16">
@@ -1185,7 +1185,7 @@
         <v>0.02715030922642262</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.04991468120689003</v>
+        <v>0.04991468120689004</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.01879641966829065</v>
@@ -1197,7 +1197,7 @@
         <v>0.02107866497255503</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.04828971345897045</v>
+        <v>0.04828971345897044</v>
       </c>
     </row>
     <row r="17">
@@ -1211,37 +1211,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007142459153144131</v>
+        <v>0.007122452488854217</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02311955868233565</v>
+        <v>0.02300519863785295</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.008205339305953295</v>
+        <v>0.008319697402493009</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.003542742277490302</v>
+        <v>0.003559495043749545</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.009334254224161695</v>
+        <v>0.009288500194389052</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03389218397497563</v>
+        <v>0.03426924929181088</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.008326477888879833</v>
+        <v>0.007832708134611514</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.007480852650131613</v>
+        <v>0.00521340810450412</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.00906139224771592</v>
+        <v>0.009311498211902554</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0335939255479232</v>
+        <v>0.03523894659750419</v>
       </c>
     </row>
     <row r="18">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04956310449705152</v>
+        <v>0.04979924241473766</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08094554090353891</v>
+        <v>0.09627255122529013</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03744676046085545</v>
+        <v>0.04782472826769591</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07560297140225097</v>
+        <v>0.0752619792309064</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04844089707146233</v>
+        <v>0.04548231981375857</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03404477185865531</v>
+        <v>0.03117761009686959</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05555689610819665</v>
+        <v>0.05862190091139217</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07263232177252603</v>
+        <v>0.07220995615695187</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03707753172981932</v>
+        <v>0.03582426207565385</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03968679793739189</v>
+        <v>0.03763933074335032</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04133716029404461</v>
+        <v>0.04057250795002745</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06422978069601627</v>
+        <v>0.06626894270916756</v>
       </c>
     </row>
     <row r="19">
@@ -1570,10 +1570,10 @@
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>1173</v>
+        <v>1184</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1201</v>
+        <v>1208</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1344</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="7">
@@ -1597,35 +1597,35 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>4359</v>
+        <v>5254</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4444</v>
+        <v>4610</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>3860</v>
+        <v>3197</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4673</v>
+        <v>5338</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>9976</v>
+        <v>9799</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6638</v>
+        <v>6281</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>4737</v>
+        <v>4161</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>6410</v>
+        <v>5493</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>9966</v>
+        <v>11226</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>7837</v>
+        <v>7305</v>
       </c>
     </row>
     <row r="8">
@@ -1733,7 +1733,7 @@
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>1438</v>
+        <v>1168</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1076</v>
+        <v>1025</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3716</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="11">
@@ -1768,36 +1768,36 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3910</v>
+        <v>3956</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>7681</v>
+        <v>6842</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7014</v>
+        <v>6215</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6621</v>
+        <v>6807</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>7010</v>
+        <v>5119</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6274</v>
+        <v>6226</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7732</v>
+        <v>7348</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>7292</v>
+        <v>7603</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>6529</v>
+        <v>6191</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>11426</v>
+        <v>11044</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1915,7 @@
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>3571</v>
+        <v>3583</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>4514</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="15">
@@ -1936,32 +1936,32 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4619</v>
+        <v>4288</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11347</v>
+        <v>10626</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>5012</v>
+        <v>4469</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4348</v>
+        <v>4870</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>11644</v>
+        <v>11288</v>
       </c>
       <c r="K15" s="6" t="n">
         <v>6769</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>11975</v>
+        <v>12823</v>
       </c>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>13225</v>
+        <v>13557</v>
       </c>
     </row>
     <row r="16">
@@ -2067,7 +2067,7 @@
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1843</v>
+        <v>2357</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>3165</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="19">
@@ -2105,31 +2105,31 @@
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>5501</v>
+        <v>5697</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4565</v>
+        <v>4096</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>4833</v>
+        <v>5273</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7299</v>
+        <v>7050</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>10619</v>
+        <v>11166</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4993</v>
+        <v>5007</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>4613</v>
+        <v>4854</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>7442</v>
+        <v>7273</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>12764</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="20">
@@ -2235,37 +2235,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3893</v>
+        <v>3874</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1841</v>
+        <v>1867</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2485</v>
+        <v>2473</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>11906</v>
+        <v>12038</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2888</v>
+        <v>2717</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3168</v>
+        <v>2208</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3490</v>
+        <v>3586</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>17458</v>
+        <v>18313</v>
       </c>
     </row>
     <row r="23">
@@ -2276,40 +2276,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6070</v>
+        <v>6099</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11743</v>
+        <v>13966</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4453</v>
+        <v>5688</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>12731</v>
+        <v>12673</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>10868</v>
+        <v>10205</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>9479</v>
+        <v>8681</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>14791</v>
+        <v>15607</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>25514</v>
+        <v>25366</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>12860</v>
+        <v>12425</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>16807</v>
+        <v>15940</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>15921</v>
+        <v>15627</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>33378</v>
+        <v>34438</v>
       </c>
     </row>
     <row r="24">
